--- a/test/template_results/generated gas template (empty).xlsx
+++ b/test/template_results/generated gas template (empty).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>Overall Properties</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>Fug. err (MPa)</t>
+  </si>
+  <si>
+    <t>Molar Vol (L/mol)</t>
+  </si>
+  <si>
+    <t>M. Vol. err (L/mol)</t>
   </si>
   <si>
     <t>Mass frac.</t>
@@ -520,13 +526,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -558,7 +564,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -584,7 +590,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -613,7 +619,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -636,7 +642,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -647,7 +653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -664,7 +670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -684,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -701,7 +707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -715,12 +721,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -769,38 +775,44 @@
       <c r="Q11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11" t="s">
+        <v>48</v>
+      </c>
+      <c r="S11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>7</v>
       </c>
